--- a/doc/plans/bookreadingplan.xlsx
+++ b/doc/plans/bookreadingplan.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7965" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="阅读计划" sheetId="1" r:id="rId1"/>
     <sheet name="人月神话" sheetId="2" r:id="rId2"/>
     <sheet name="经济学原理" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>目标：阅读50本书</t>
   </si>
@@ -66,11 +66,35 @@
   </si>
   <si>
     <t>《人月神话》-</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t xml:space="preserve">1.阅读笔记
 2.读后感
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">经济学
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2016/04/20-2016/04/20</t>
+    </r>
+  </si>
+  <si>
+    <t>《经济学》-chapter1</t>
   </si>
 </sst>
 </file>
@@ -78,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +116,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -101,6 +126,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -109,191 +182,158 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,61 +348,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD7E3BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,131 +534,47 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BBB59"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BBB59"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9BBB59"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9BBB59"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9BBB59"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9BBB59"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -532,7 +608,9 @@
       <right style="thin">
         <color rgb="FF9BBB59"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF9BBB59"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF9BBB59"/>
       </bottom>
@@ -553,16 +631,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF9BBB59"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF9BBB59"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF9BBB59"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9BBB59"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +677,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -597,22 +688,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,33 +719,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,10 +735,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,195 +747,213 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1302,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1235,89 +1316,81 @@
     <col min="9" max="9" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="58" customHeight="1" spans="1:9">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="12" customFormat="1" ht="58" customHeight="1" spans="1:1">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="18" t="s">
+    <row r="2" s="13" customFormat="1" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:9">
-      <c r="A3" s="19">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>42478</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>42484</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" customFormat="1" ht="40" customHeight="1" spans="1:9">
-      <c r="A4" s="19">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="19">
         <v>42480</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="19">
         <v>42510</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1334,8 +1407,8 @@
   <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1343,89 +1416,93 @@
     <col min="2" max="2" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="58" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="12" customFormat="1" ht="58" customHeight="1" spans="1:9">
+      <c r="A1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="23"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="13" customFormat="1" spans="1:9">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="40" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row r="3" customFormat="1" ht="40" customHeight="1" spans="1:9">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>42480</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <v>42480</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="14"/>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
-    <row r="4" s="3" customFormat="1" ht="40" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
+    <row r="4" customFormat="1" ht="40" customHeight="1" spans="1:9">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="19">
         <v>42480</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="19">
         <v>42510</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1440,14 +1517,82 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="51" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6">
+        <v>42499</v>
+      </c>
+      <c r="D3" s="6">
+        <v>42499</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
